--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288105.7095007563</v>
+        <v>283012.9798785892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6910428.155560137</v>
+        <v>6037395.839817929</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13105198.29760689</v>
+        <v>12249539.32494794</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6293431.292643534</v>
+        <v>6653262.411964417</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,58 +667,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S2" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T2" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F2" t="n">
+      <c r="V2" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="G2" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>202.5496269016835</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,22 +740,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>136.7642631988497</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69.80146205750292</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>100.269847439348</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -896,10 +898,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>46.39658611529718</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.22588546023341</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>204.3935387844242</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D8" t="n">
-        <v>202.5496269016834</v>
+        <v>0.08822281599018904</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>18.03394431474323</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.19630014635969</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -1367,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65.59588116322361</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="G11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>136.9537457384598</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>143.1600616127304</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -1546,7 +1548,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>78.03010452925133</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G14" t="n">
-        <v>27.98289658589032</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1689,7 +1691,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>92.98938547511911</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>151.615314643873</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>24.02388996822894</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>65.59588116322361</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.7509618018286</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>87.41444223540492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>79.08012240725671</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
         <v>207.9625118881446</v>
@@ -1986,10 +1988,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.61153143263809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.9505924451781</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>126.5216462329684</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>223.3918391921544</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>152.7855877686577</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>386.5770224287186</v>
       </c>
       <c r="G23" t="n">
-        <v>363.1353774318637</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2484,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>109.9110200886983</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.6158245190451</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>314.9162734470955</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>336.748425770774</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -2725,13 +2727,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>46.6663781598623</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>349.8802360873214</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>320.2430998025009</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
         <v>48.89338144820752</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.8399967687678</v>
+        <v>211.6928685184854</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>171.7842945418048</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>170.9307155829872</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820781</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>20.98476809241017</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>304.0074039714629</v>
+        <v>245.1247747811096</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>119.8267326610451</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>157.227688909249</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>374.9847936963303</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3569,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>231.024202891151</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -3676,10 +3678,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>165.87148443952</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>39.35784723238255</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -3800,10 +3802,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>138.8978735030925</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>56.74603282013119</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>229.9609751381512</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>229.9609751381512</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>211.2450056236572</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>20.25083816630046</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>149.4030261828031</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>172.4751394295244</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>229.9609751381512</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C2" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D2" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E2" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F2" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G2" t="n">
         <v>18.39687801105209</v>
@@ -4328,52 +4330,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L2" t="n">
-        <v>618.3693816934194</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M2" t="n">
-        <v>846.030747080189</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N2" t="n">
-        <v>919.8439005526046</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O2" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P2" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T2" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U2" t="n">
-        <v>919.8439005526046</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V2" t="n">
-        <v>715.2483178236314</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="W2" t="n">
-        <v>715.2483178236314</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="X2" t="n">
-        <v>715.2483178236314</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="Y2" t="n">
-        <v>715.2483178236314</v>
+        <v>27.26920279687423</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.7333491871505</v>
+        <v>156.5425984139306</v>
       </c>
       <c r="C3" t="n">
-        <v>438.0791187472427</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D3" t="n">
-        <v>438.0791187472427</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E3" t="n">
-        <v>301.6326278581304</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F3" t="n">
-        <v>177.2008217412622</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G3" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H3" t="n">
         <v>18.39687801105209</v>
@@ -4407,22 +4409,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L3" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M3" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N3" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O3" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P3" t="n">
         <v>919.8439005526046</v>
@@ -4431,28 +4433,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U3" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V3" t="n">
-        <v>919.8439005526046</v>
+        <v>538.4561787216051</v>
       </c>
       <c r="W3" t="n">
-        <v>919.8439005526046</v>
+        <v>308.3389328548919</v>
       </c>
       <c r="X3" t="n">
-        <v>919.8439005526046</v>
+        <v>308.3389328548919</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5296836281118</v>
+        <v>308.3389328548919</v>
       </c>
     </row>
     <row r="4">
@@ -4468,7 +4470,7 @@
         <v>919.8439005526046</v>
       </c>
       <c r="D4" t="n">
-        <v>764.2107874551193</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E4" t="n">
         <v>662.9281132739598</v>
@@ -4480,25 +4482,25 @@
         <v>337.3481245863783</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478723</v>
+        <v>181.8695735478722</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K4" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N4" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O4" t="n">
         <v>796.5455384059751</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C5" t="n">
-        <v>297.5459297822121</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D5" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E5" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F5" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G5" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H5" t="n">
-        <v>65.26211651135227</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I5" t="n">
         <v>18.39687801105209</v>
@@ -4568,19 +4570,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M5" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N5" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O5" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P5" t="n">
         <v>919.8439005526046</v>
@@ -4592,25 +4594,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X5" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y5" t="n">
-        <v>529.8297430530719</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>321.1053601114104</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C6" t="n">
-        <v>170.4511296715026</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D6" t="n">
-        <v>170.4511296715026</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>170.4511296715026</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>170.4511296715026</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4653,13 +4655,13 @@
         <v>359.1732256175491</v>
       </c>
       <c r="M6" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N6" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O6" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
         <v>919.8439005526046</v>
@@ -4668,28 +4670,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="W6" t="n">
-        <v>689.7266546858915</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="X6" t="n">
-        <v>500.4195770359032</v>
+        <v>500.161659816414</v>
       </c>
       <c r="Y6" t="n">
-        <v>321.1053601114104</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105209</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105209</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105209</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G7" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H7" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I7" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J7" t="n">
         <v>18.39687801105209</v>
@@ -4747,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5592008260114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.276274010885</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="C8" t="n">
-        <v>222.9924607400252</v>
+        <v>18.48599196659774</v>
       </c>
       <c r="D8" t="n">
         <v>18.39687801105209</v>
@@ -4802,16 +4804,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L8" t="n">
-        <v>618.3693816934194</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M8" t="n">
-        <v>734.998340411656</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N8" t="n">
         <v>734.998340411656</v>
@@ -4826,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y8" t="n">
-        <v>687.5600872817448</v>
+        <v>483.0536185083173</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>768.0475661116433</v>
+        <v>453.8026720870193</v>
       </c>
       <c r="C9" t="n">
-        <v>617.3933356717355</v>
+        <v>303.1484416471116</v>
       </c>
       <c r="D9" t="n">
-        <v>487.3043682932158</v>
+        <v>173.0594742685919</v>
       </c>
       <c r="E9" t="n">
-        <v>350.8578774041035</v>
+        <v>36.6129833794796</v>
       </c>
       <c r="F9" t="n">
-        <v>226.4260712872353</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G9" t="n">
-        <v>106.3662533590998</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4884,16 +4886,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L9" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M9" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N9" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O9" t="n">
         <v>692.182535165835</v>
@@ -4908,25 +4910,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="X9" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="Y9" t="n">
-        <v>919.8439005526046</v>
+        <v>605.5990065279807</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>687.5600872817448</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C11" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D11" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E11" t="n">
-        <v>621.3016214603068</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F11" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G11" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H11" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I11" t="n">
         <v>18.39687801105209</v>
@@ -5042,19 +5044,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L11" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M11" t="n">
-        <v>246.0582433978217</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N11" t="n">
-        <v>279.6756096381168</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O11" t="n">
-        <v>507.3369750248864</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P11" t="n">
         <v>734.998340411656</v>
@@ -5075,13 +5077,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y11" t="n">
         <v>687.5600872817448</v>
@@ -5121,19 +5123,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K12" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L12" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M12" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N12" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O12" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P12" t="n">
         <v>692.182535165835</v>
@@ -5145,22 +5147,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S12" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T12" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U12" t="n">
-        <v>709.7807572312464</v>
+        <v>574.8500801311152</v>
       </c>
       <c r="V12" t="n">
-        <v>487.2407556023135</v>
+        <v>352.3100785021823</v>
       </c>
       <c r="W12" t="n">
-        <v>257.1235097356004</v>
+        <v>207.7039556610404</v>
       </c>
       <c r="X12" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y12" t="n">
         <v>18.39687801105209</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="C13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="D13" t="n">
-        <v>764.2107874551193</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="E13" t="n">
-        <v>608.6519753143218</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F13" t="n">
-        <v>451.3260405272948</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G13" t="n">
-        <v>283.0719866267403</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H13" t="n">
-        <v>127.5934355882343</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I13" t="n">
         <v>48.77514818495014</v>
@@ -5206,7 +5208,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M13" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N13" t="n">
         <v>633.8407713642671</v>
@@ -5221,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D14" t="n">
-        <v>649.5671735672668</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E14" t="n">
-        <v>417.283360296407</v>
+        <v>455.276274010885</v>
       </c>
       <c r="F14" t="n">
-        <v>184.9995470255472</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H14" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I14" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K14" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L14" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M14" t="n">
-        <v>464.5211697790654</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N14" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O14" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P14" t="n">
         <v>919.8439005526046</v>
@@ -5300,28 +5302,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y14" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.4262715371622</v>
+        <v>435.5865667185918</v>
       </c>
       <c r="C15" t="n">
-        <v>248.7720410972544</v>
+        <v>284.932336278684</v>
       </c>
       <c r="D15" t="n">
         <v>154.8433689001644</v>
@@ -5355,25 +5357,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L15" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M15" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N15" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O15" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N15" t="n">
-        <v>464.5211697790654</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="P15" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
@@ -5397,10 +5399,10 @@
         <v>919.8439005526046</v>
       </c>
       <c r="X15" t="n">
-        <v>730.5368229026162</v>
+        <v>766.697118084046</v>
       </c>
       <c r="Y15" t="n">
-        <v>551.2226059781235</v>
+        <v>587.3829011595532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>795.9429111851816</v>
+        <v>507.5532425203891</v>
       </c>
       <c r="C16" t="n">
-        <v>795.9429111851816</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="D16" t="n">
-        <v>795.9429111851816</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="E16" t="n">
-        <v>662.9281132739598</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="F16" t="n">
-        <v>505.6021784869328</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="G16" t="n">
         <v>337.3481245863783</v>
@@ -5458,28 +5460,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R16" t="n">
-        <v>795.9429111851816</v>
+        <v>895.577345029141</v>
       </c>
       <c r="S16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
       <c r="T16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
       <c r="U16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
       <c r="V16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
       <c r="W16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
       <c r="X16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
       <c r="Y16" t="n">
-        <v>795.9429111851816</v>
+        <v>692.7612612116903</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>919.8439005526046</v>
+        <v>922.895892954585</v>
       </c>
       <c r="C17" t="n">
-        <v>853.5854347311666</v>
+        <v>922.895892954585</v>
       </c>
       <c r="D17" t="n">
-        <v>621.3016214603068</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E17" t="n">
-        <v>389.017808189447</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F17" t="n">
-        <v>156.7339949185873</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G17" t="n">
-        <v>156.7339949185873</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H17" t="n">
-        <v>156.7339949185873</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>18.39687801105209</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>246.0582433978217</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>473.7196087845913</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>473.7196087845913</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>701.380974171361</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>919.8439005526046</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S17" t="n">
-        <v>919.8439005526046</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T17" t="n">
-        <v>919.8439005526046</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U17" t="n">
-        <v>919.8439005526046</v>
+        <v>1683.347533053241</v>
       </c>
       <c r="V17" t="n">
-        <v>919.8439005526046</v>
+        <v>1683.347533053241</v>
       </c>
       <c r="W17" t="n">
-        <v>919.8439005526046</v>
+        <v>1312.348498021528</v>
       </c>
       <c r="X17" t="n">
-        <v>919.8439005526046</v>
+        <v>922.895892954585</v>
       </c>
       <c r="Y17" t="n">
-        <v>919.8439005526046</v>
+        <v>922.895892954585</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.39687801105209</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C18" t="n">
-        <v>18.39687801105209</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D18" t="n">
-        <v>18.39687801105209</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E18" t="n">
-        <v>18.39687801105209</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F18" t="n">
-        <v>18.39687801105209</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G18" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39687801105209</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>131.5118602307795</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>359.1732256175491</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>359.1732256175491</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>359.1732256175491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>359.1732256175491</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O18" t="n">
-        <v>464.5211697790654</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>692.182535165835</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>895.9268574506692</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>760.996180350538</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>681.1172688280565</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>471.0541255066982</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>248.5141238777652</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>18.39687801105209</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>18.39687801105209</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.39687801105209</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.6019959450629</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39687801105209</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39687801105209</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39687801105209</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39687801105209</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39687801105209</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39687801105209</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N19" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O19" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P19" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>795.9429111851816</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>795.9429111851816</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>606.093827907224</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>606.093827907224</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V19" t="n">
-        <v>373.8100146363641</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W19" t="n">
-        <v>373.8100146363641</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X19" t="n">
-        <v>373.8100146363641</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="Y19" t="n">
-        <v>373.8100146363641</v>
+        <v>145.9104765991578</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>568.2881142581771</v>
+        <v>1927.160845651304</v>
       </c>
       <c r="C20" t="n">
-        <v>175.1126127611076</v>
+        <v>1533.985344154235</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154361</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154361</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T20" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U20" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V20" t="n">
-        <v>1339.781895001287</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W20" t="n">
-        <v>968.782859969574</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X20" t="n">
-        <v>968.782859969574</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="Y20" t="n">
-        <v>968.782859969574</v>
+        <v>2327.655591362701</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
         <v>1116.377061006459</v>
@@ -5844,28 +5846,28 @@
         <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5874,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>682.7806474639203</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C22" t="n">
-        <v>682.7806474639203</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D22" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E22" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5944,16 +5946,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>682.7806474639203</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X22" t="n">
-        <v>682.7806474639203</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y22" t="n">
-        <v>682.7806474639203</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1233.594345002359</v>
+        <v>1364.156581512956</v>
       </c>
       <c r="C23" t="n">
-        <v>1233.594345002359</v>
+        <v>1364.156581512956</v>
       </c>
       <c r="D23" t="n">
-        <v>1233.594345002359</v>
+        <v>978.7154527296238</v>
       </c>
       <c r="E23" t="n">
-        <v>831.010820118903</v>
+        <v>576.1319278461683</v>
       </c>
       <c r="F23" t="n">
-        <v>414.1163816488807</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -6002,37 +6004,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="V23" t="n">
-        <v>2023.541695780699</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="W23" t="n">
-        <v>2023.541695780699</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="X23" t="n">
-        <v>1634.089090713755</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="Y23" t="n">
-        <v>1634.089090713755</v>
+        <v>1764.651327224353</v>
       </c>
     </row>
     <row r="24">
@@ -6060,13 +6062,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
         <v>367.0521161637701</v>
@@ -6075,16 +6077,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1374.52913135418</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N24" t="n">
-        <v>1960.027136360782</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.648505077179</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1790.039713567123</v>
+        <v>2056.539497018455</v>
       </c>
       <c r="C25" t="n">
-        <v>1619.834595633113</v>
+        <v>1886.334379084444</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.201482535628</v>
+        <v>1730.701265986959</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535628</v>
+        <v>1619.680033574133</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="X25" t="n">
-        <v>2198.359793441781</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="Y25" t="n">
-        <v>1975.247732258425</v>
+        <v>2241.747515709756</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1228.513125265401</v>
+        <v>1153.434869674488</v>
       </c>
       <c r="C26" t="n">
-        <v>835.3376237683314</v>
+        <v>1153.434869674488</v>
       </c>
       <c r="D26" t="n">
-        <v>449.8964949849991</v>
+        <v>767.9937408911562</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>365.4102160077007</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>365.4102160077007</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
         <v>406.2953261290054</v>
@@ -6239,37 +6241,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.382220452829</v>
       </c>
       <c r="X26" t="n">
-        <v>2025.498580056196</v>
+        <v>1553.929615385885</v>
       </c>
       <c r="Y26" t="n">
-        <v>1629.007870976798</v>
+        <v>1553.929615385885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L27" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
         <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2133.302730668846</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C28" t="n">
-        <v>1963.097612734835</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D28" t="n">
-        <v>1807.46449963735</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E28" t="n">
-        <v>1651.905687496553</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F28" t="n">
-        <v>1494.579752709526</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G28" t="n">
-        <v>1494.579752709526</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H28" t="n">
-        <v>1494.579752709526</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I28" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X28" t="n">
-        <v>2318.510749360148</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y28" t="n">
-        <v>2318.510749360148</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1544.288363774714</v>
+        <v>1641.675880777398</v>
       </c>
       <c r="C29" t="n">
-        <v>1190.873983888531</v>
+        <v>1248.500379280328</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.873983888531</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E29" t="n">
-        <v>788.2904590050753</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F29" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V29" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W29" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X29" t="n">
-        <v>1544.288363774714</v>
+        <v>2042.170626488795</v>
       </c>
       <c r="Y29" t="n">
-        <v>1544.288363774714</v>
+        <v>2042.170626488795</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M30" t="n">
-        <v>1209.141762214911</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X30" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6664,7 +6666,7 @@
         <v>431.3492683572568</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.5209887928449</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>220.8324595377101</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="C32" t="n">
-        <v>220.8324595377101</v>
+        <v>1576.315112671863</v>
       </c>
       <c r="D32" t="n">
-        <v>220.8324595377101</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="E32" t="n">
-        <v>220.8324595377101</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F32" t="n">
-        <v>220.8324595377101</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>220.8324595377101</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
         <v>2365.64850507718</v>
@@ -6725,25 +6727,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>1975.634347577648</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U32" t="n">
-        <v>1719.881618012246</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="V32" t="n">
-        <v>1377.774808715765</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="W32" t="n">
-        <v>1006.775773684052</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="X32" t="n">
-        <v>617.323168617109</v>
+        <v>1969.490614168933</v>
       </c>
       <c r="Y32" t="n">
-        <v>220.8324595377101</v>
+        <v>1969.490614168933</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415748</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016671</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231474</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340351</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171669</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890314</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.7002240896323</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154367</v>
+        <v>194.5661265746816</v>
       </c>
       <c r="L33" t="n">
-        <v>530.879055999857</v>
+        <v>678.1322124729949</v>
       </c>
       <c r="M33" t="n">
-        <v>858.0088487631995</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P33" t="n">
         <v>2365.64850507718</v>
@@ -6801,19 +6803,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="C34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="D34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="E34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
@@ -6883,25 +6885,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T34" t="n">
-        <v>713.0409408113302</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U34" t="n">
-        <v>713.0409408113302</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V34" t="n">
-        <v>713.0409408113302</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="W34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="X34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="Y34" t="n">
-        <v>691.8442053644512</v>
+        <v>47.3129701015436</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2058.57031924742</v>
+        <v>571.091215792411</v>
       </c>
       <c r="C35" t="n">
-        <v>1665.394817750351</v>
+        <v>571.091215792411</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L35" t="n">
-        <v>318.7636682303387</v>
+        <v>318.7636682303382</v>
       </c>
       <c r="M35" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749188</v>
       </c>
       <c r="N35" t="n">
         <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
@@ -6962,25 +6964,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.64850507718</v>
+        <v>1215.182707478991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.64850507718</v>
+        <v>818.6919983995924</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415747</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016669</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231474</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340351</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171668</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890313</v>
       </c>
       <c r="H36" t="n">
         <v>96.70022408963223</v>
@@ -7014,7 +7016,7 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K36" t="n">
         <v>367.0521161637701</v>
@@ -7023,34 +7025,34 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>1029.265125924707</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N36" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825361</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>336.6041277001235</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="C37" t="n">
-        <v>336.6041277001235</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="D37" t="n">
-        <v>336.6041277001235</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="E37" t="n">
-        <v>336.6041277001235</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="F37" t="n">
-        <v>215.5670240020981</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
@@ -7117,28 +7119,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>622.0429194582225</v>
+        <v>789.9441452600163</v>
       </c>
       <c r="U37" t="n">
-        <v>336.6041277001235</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="V37" t="n">
-        <v>336.6041277001235</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="W37" t="n">
-        <v>336.6041277001235</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X37" t="n">
-        <v>336.6041277001235</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y37" t="n">
-        <v>336.6041277001235</v>
+        <v>47.3129701015436</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1204.702119267128</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="C38" t="n">
-        <v>811.526617770058</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="D38" t="n">
-        <v>426.0854889867257</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="E38" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N38" t="n">
-        <v>1832.61545280471</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W38" t="n">
-        <v>1994.649470045468</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X38" t="n">
-        <v>1605.196864978524</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y38" t="n">
-        <v>1605.196864978524</v>
+        <v>773.9795454185085</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631995</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
         <v>2341.731461975244</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.7599926430961</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="C40" t="n">
-        <v>948.7599926430961</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="D40" t="n">
-        <v>817.0247473313507</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E40" t="n">
-        <v>661.4659351905532</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F40" t="n">
-        <v>504.1400004035262</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G40" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7363,19 +7365,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>781.213038663783</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>781.213038663783</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>781.213038663783</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>781.213038663783</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>558.1009774804263</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>440.488471598613</v>
+        <v>571.091215792411</v>
       </c>
       <c r="C41" t="n">
-        <v>47.31297010154361</v>
+        <v>571.091215792411</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M41" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N41" t="n">
-        <v>1572.076674393824</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O41" t="n">
-        <v>2012.116275286153</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.303767417675</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>1719.881618012246</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V41" t="n">
-        <v>1377.774808715765</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W41" t="n">
-        <v>1237.473926389409</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X41" t="n">
-        <v>1237.473926389409</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y41" t="n">
-        <v>840.9832173100099</v>
+        <v>610.8466170372419</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6182020620834</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7236943873829</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>564.7236943873829</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>564.7236943873829</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>696.3432981120214</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C44" t="n">
-        <v>696.3432981120214</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D44" t="n">
-        <v>696.3432981120214</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E44" t="n">
-        <v>464.0594848411616</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>231.7756715703018</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>231.7756715703018</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>18.3968780110521</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>18.3968780110521</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>246.0582433978217</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M44" t="n">
-        <v>473.7196087845914</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N44" t="n">
-        <v>701.380974171361</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8439005526047</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P44" t="n">
-        <v>919.8439005526047</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>919.8439005526047</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S44" t="n">
-        <v>919.8439005526047</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T44" t="n">
-        <v>696.3432981120214</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U44" t="n">
-        <v>696.3432981120214</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="V44" t="n">
-        <v>696.3432981120214</v>
+        <v>2051.447469710128</v>
       </c>
       <c r="W44" t="n">
-        <v>696.3432981120214</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X44" t="n">
-        <v>696.3432981120214</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y44" t="n">
-        <v>696.3432981120214</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18.3968780110521</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>18.3968780110521</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>18.3968780110521</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>18.3968780110521</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>18.3968780110521</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>18.3968780110521</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>18.3968780110521</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>131.5118602307795</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>131.5118602307795</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L45" t="n">
-        <v>359.1732256175491</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M45" t="n">
-        <v>586.8345910043188</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N45" t="n">
-        <v>814.4959563910884</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O45" t="n">
-        <v>814.4959563910884</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P45" t="n">
-        <v>814.4959563910884</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526047</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>919.8439005526047</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>919.8439005526047</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>919.8439005526047</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>768.9317528932077</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>538.8145070264945</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>349.5074293765062</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.1932124520134</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>796.5455384059752</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>745.6265879975296</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>513.3427747266697</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>281.0589614558099</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>48.77514818495015</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>48.77514818495015</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N2" t="n">
-        <v>223.677232219012</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>319.5579104714845</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N3" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8216,22 +8218,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O5" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>224.8601881221531</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8301,16 +8303,16 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N6" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>373.0193783173885</v>
@@ -8459,10 +8461,10 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
-        <v>267.5320806060471</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>183.0754269340417</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
@@ -8532,19 +8534,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L9" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>313.3571814962057</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>317.0443399574658</v>
@@ -8690,22 +8692,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>187.2051053267494</v>
       </c>
       <c r="M11" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N11" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,22 +8771,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M12" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O12" t="n">
-        <v>199.0996236985014</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>320.9491282940651</v>
@@ -8851,7 +8853,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
         <v>278.4750710187352</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L14" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N14" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O14" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9003,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L15" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9024,7 +9026,7 @@
         <v>317.0443399574658</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>373.0193783173885</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>379.0794664759352</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>370.2334600314132</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9243,25 +9245,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>319.5579104714845</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>500.3175139373679</v>
       </c>
       <c r="O18" t="n">
-        <v>199.0996236985014</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>317.0443399574658</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9401,10 +9403,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
-        <v>353.4472259067894</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9650,7 +9652,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -9723,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>621.5900809302174</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401062</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9960,16 +9962,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10118,16 +10120,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063179</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10191,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>238.3374974274118</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10355,16 +10357,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063184</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10425,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>124.0799396297077</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186068</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234616</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10589,7 +10591,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>427.440794103012</v>
+        <v>427.4407941030115</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10671,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>272.8385602943859</v>
+        <v>683.7992483186068</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226329</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10826,22 +10828,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822908</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>540.0265064010113</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>422.8212561536984</v>
+        <v>384.8576652182069</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.8974233269835</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,13 +11147,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095482</v>
+        <v>263.5850982253572</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>379.6860267358784</v>
+        <v>466.7144144634695</v>
       </c>
       <c r="N44" t="n">
-        <v>379.0794664759353</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>370.2334600314133</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>315.3330879923178</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q45" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>387.706196716319</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22553,13 +22555,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>136.1361143018333</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -22626,22 +22628,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.383424936659</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>49.05775769135128</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -22683,16 +22685,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -22708,10 +22710,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>53.73337658004155</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22784,10 +22786,10 @@
         <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22799,10 +22801,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>90.55715962316265</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22850,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>189.9761750869214</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>104.6333342886208</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -22920,10 +22922,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>15.92106282821942</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23024,7 +23026,7 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
-        <v>179.0370905938155</v>
+        <v>381.4984946795087</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23066,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -23109,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>105.1535437409563</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>49.21814208904539</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,7 +23150,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
@@ -23166,7 +23168,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>186.6941195804153</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>332.9618084713973</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F11" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23324,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="12">
@@ -23385,7 +23387,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>175.2139736830806</v>
@@ -23397,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>84.65601179531561</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23419,10 +23421,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>53.73337658004155</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -23507,13 +23509,13 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
-        <v>381.0482313709865</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23577,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>35.79869222961536</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>35.79869222961543</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.63808950551986</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -23732,22 +23734,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>323.6478653188751</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>1.444240467918775</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>96.1338512758239</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23908,7 +23910,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>34.15194967665479</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>45.41126886827013</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>255.0650712625306</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>189.3336548931676</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>1.29119419785269</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24184,16 +24186,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24211,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>26.14847165660342</v>
       </c>
       <c r="G23" t="n">
-        <v>45.89575052501311</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24263,16 +24265,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>44.09220393069126</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24379,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>66.12369447580164</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>94.11485450978131</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24491,13 +24493,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24506,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>48.80965324549976</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>185.0731408349844</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>39.36351039477728</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24731,19 +24733,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>65.3149792137728</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.04094380275524</v>
+        <v>9.188072053037644</v>
       </c>
     </row>
     <row r="32">
@@ -24917,22 +24919,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>149.0579253873694</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24965,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>196.3583290984082</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25084,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>87.62118754448952</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>259.512329955724</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.48239428282</v>
+        <v>151.3650234731734</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25214,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25321,10 +25323,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>35.92594277811165</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>76.13417240419921</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>23.57289593829057</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25406,7 +25408,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25445,10 +25447,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>161.5015990974538</v>
       </c>
     </row>
     <row r="39">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25603,7 +25605,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>116.7129194009981</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25615,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>357.1319510219004</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25646,7 +25648,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>228.391171178303</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>176.615828493317</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25871,16 +25873,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>168.5967144964697</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>182.7645189471708</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>109.597214305517</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25910,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>318.4349030372163</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>70.91157542984052</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26044,7 +26046,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>28.31278354975169</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>3.400886175297018</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236688</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>33.35857658923283</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421210.3909520617</v>
+        <v>421210.3909520619</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421210.3909520619</v>
+        <v>421210.3909520616</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421210.3909520617</v>
+        <v>678342.4163268267</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678342.4163268264</v>
+        <v>678342.416326826</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678342.4163268267</v>
+        <v>678342.4163268266</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678342.4163268266</v>
+        <v>678342.4163268267</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678342.4163268266</v>
+        <v>678342.4163268264</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421210.3909520619</v>
+        <v>678342.4163268267</v>
       </c>
     </row>
   </sheetData>
@@ -26326,10 +26328,10 @@
         <v>105219.9252576085</v>
       </c>
       <c r="G2" t="n">
-        <v>105219.9252576085</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="H2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="I2" t="n">
         <v>169394.3482070292</v>
@@ -26338,7 +26340,7 @@
         <v>169394.3482070292</v>
       </c>
       <c r="K2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="L2" t="n">
         <v>169394.3482070292</v>
@@ -26347,13 +26349,13 @@
         <v>169394.3482070293</v>
       </c>
       <c r="N2" t="n">
+        <v>169394.3482070293</v>
+      </c>
+      <c r="O2" t="n">
         <v>169394.3482070292</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>169394.3482070293</v>
-      </c>
-      <c r="P2" t="n">
-        <v>105219.9252576085</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99068.33875777952</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>86983.58097086086</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35603.40934884741</v>
+        <v>35603.40934884742</v>
       </c>
       <c r="C4" t="n">
-        <v>35603.40934884741</v>
+        <v>35603.40934884742</v>
       </c>
       <c r="D4" t="n">
         <v>35603.40934884741</v>
@@ -26430,34 +26432,34 @@
         <v>35603.40934884742</v>
       </c>
       <c r="G4" t="n">
-        <v>35603.40934884741</v>
+        <v>57691.12693712539</v>
       </c>
       <c r="H4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="I4" t="n">
+        <v>57691.12693712539</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57691.1269371254</v>
+      </c>
+      <c r="K4" t="n">
         <v>57691.12693712541</v>
       </c>
-      <c r="J4" t="n">
-        <v>57691.12693712542</v>
-      </c>
-      <c r="K4" t="n">
-        <v>57691.12693712542</v>
-      </c>
       <c r="L4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="M4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="N4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="O4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="P4" t="n">
-        <v>35603.40934884742</v>
+        <v>57691.12693712539</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55057.92325086117</v>
+        <v>-55057.92325086113</v>
       </c>
       <c r="C6" t="n">
-        <v>22007.28862036151</v>
+        <v>22007.28862036148</v>
       </c>
       <c r="D6" t="n">
-        <v>22007.28862036151</v>
+        <v>22007.28862036149</v>
       </c>
       <c r="E6" t="n">
         <v>55634.88862036146</v>
       </c>
       <c r="F6" t="n">
-        <v>55634.88862036149</v>
+        <v>55634.88862036147</v>
       </c>
       <c r="G6" t="n">
-        <v>55634.88862036145</v>
+        <v>-23322.97476504888</v>
       </c>
       <c r="H6" t="n">
-        <v>-21777.40964281211</v>
+        <v>75745.36399273066</v>
       </c>
       <c r="I6" t="n">
-        <v>75745.36399273065</v>
+        <v>75745.36399273068</v>
       </c>
       <c r="J6" t="n">
-        <v>15577.4546136842</v>
+        <v>15577.45461368424</v>
       </c>
       <c r="K6" t="n">
-        <v>75745.36399273066</v>
+        <v>75745.36399273078</v>
       </c>
       <c r="L6" t="n">
-        <v>75745.36399273066</v>
+        <v>75745.36399273068</v>
       </c>
       <c r="M6" t="n">
-        <v>75745.36399273069</v>
+        <v>75745.36399273074</v>
       </c>
       <c r="N6" t="n">
-        <v>75745.36399273066</v>
+        <v>75745.36399273072</v>
       </c>
       <c r="O6" t="n">
-        <v>75745.36399273075</v>
+        <v>-11238.21697813022</v>
       </c>
       <c r="P6" t="n">
-        <v>55634.88862036146</v>
+        <v>75745.36399273074</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.412126269295</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.412126269295</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="H4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="N2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N2" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="L3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N3" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N4" t="n">
-        <v>185.0400343749589</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O4" t="n">
         <v>164.3482495370789</v>
@@ -34936,22 +34938,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N5" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,16 +35023,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N6" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N6" t="n">
-        <v>106.4120648096125</v>
-      </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>229.9609751381512</v>
@@ -35179,10 +35181,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M8" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>33.95693559625762</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>229.9609751381512</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="M11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N11" t="n">
-        <v>33.9569355962577</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,22 +35491,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>106.4120648096124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>229.9609751381512</v>
@@ -35571,7 +35573,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L13" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M13" t="n">
         <v>188.1733114527919</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L14" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>229.9609751381512</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>220.6696226073168</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>229.9609751381512</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.9454010832013</v>
       </c>
       <c r="O18" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>229.9609751381512</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
-        <v>260.7596670179005</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>529.2029588809055</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7.465299698096623</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,16 +36840,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>5.398724908590651</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>148.7405620940785</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,16 +37077,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859111</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>34.48300429637437</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>330.4341341043864</v>
+        <v>591.412126269295</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>591.412126269295</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>274.1926243725203</v>
+        <v>274.1926243725198</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37391,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>180.451438245074</v>
+        <v>591.412126269295</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096623</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,22 +37548,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095179912</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>390.9080150632272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>330.4341341043865</v>
+        <v>292.470543168895</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.39872490859134</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,13 +37867,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553815</v>
+        <v>178.2129853711906</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>229.9609751381512</v>
+        <v>316.9893628657422</v>
       </c>
       <c r="N44" t="n">
-        <v>229.9609751381512</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>220.6696226073169</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749589</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283012.9798785892</v>
+        <v>275310.6224267475</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037395.839817929</v>
+        <v>6037395.839817921</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.783601537963911</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>48.92535853381431</v>
       </c>
       <c r="C3" t="n">
-        <v>136.7642631988497</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -803,7 +803,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.761703922407411</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.783601537963911</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S5" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T5" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C5" t="n">
+      <c r="X5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20.34104538691041</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>204.3935387844242</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08822281599018904</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>229.9609751381512</v>
+        <v>173.6320210463239</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>116.6265468138852</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -1223,16 +1223,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>18.03394431474323</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="C11" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>143.1600616127304</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="13">
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>211.6296614683115</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>229.9609751381512</v>
@@ -1621,10 +1621,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G14" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="H14" t="n">
         <v>202.5496269016834</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>181.3832714469408</v>
       </c>
       <c r="X15" t="n">
-        <v>151.615314643873</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.02388996822894</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>28.03699787533127</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -1900,7 +1900,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>251.7509618018286</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540492</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
         <v>48.89338144820752</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.61153143263809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>55.70423636080959</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>117.2391724661059</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>223.3918391921544</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>104.065377688439</v>
       </c>
       <c r="W22" t="n">
-        <v>256.4561542453789</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>276.2391134180187</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>386.5770224287186</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>109.9110200886983</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>314.9162734470955</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>187.0997079592996</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>56.44588961684117</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>320.2430998025009</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.8714844395199</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.6928685184854</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,7 +3043,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.148524322216981</v>
       </c>
       <c r="W32" t="n">
-        <v>170.9307155829872</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820781</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7.500253464403726</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>145.7406737689587</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.1247747811096</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>293.0368500926971</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>157.227688909249</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>196.58555861463</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>358.1657586613312</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.024202891151</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>165.87148443952</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>39.35784723238255</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>120.9248399319311</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -3839,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>118.7500583579474</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>145.8411425364609</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>20.25083816630046</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.12135515693654</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010083</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C2" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D2" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E2" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
       <c r="F2" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G2" t="n">
         <v>18.39687801105209</v>
@@ -4330,22 +4330,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L2" t="n">
-        <v>18.39687801105209</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M2" t="n">
-        <v>52.01424425134721</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N2" t="n">
-        <v>279.6756096381168</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O2" t="n">
-        <v>507.3369750248864</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P2" t="n">
         <v>734.998340411656</v>
@@ -4354,28 +4354,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S2" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T2" t="n">
-        <v>491.8368293385938</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
-        <v>259.553016067734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V2" t="n">
-        <v>27.26920279687423</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W2" t="n">
-        <v>27.26920279687423</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X2" t="n">
-        <v>27.26920279687423</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.26920279687423</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.5425984139306</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C3" t="n">
         <v>18.39687801105209</v>
@@ -4409,52 +4409,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="L3" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="M3" t="n">
         <v>236.8598043922958</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="P3" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N3" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O3" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P3" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R3" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T3" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U3" t="n">
-        <v>760.996180350538</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V3" t="n">
-        <v>538.4561787216051</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W3" t="n">
-        <v>308.3389328548919</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X3" t="n">
-        <v>308.3389328548919</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y3" t="n">
-        <v>308.3389328548919</v>
+        <v>67.81643208561201</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478722</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N4" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O4" t="n">
         <v>796.5455384059751</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>918.064401641082</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U4" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V4" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W4" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.9645045527716</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="C5" t="n">
-        <v>250.6806912819119</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="D5" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="E5" t="n">
         <v>18.39687801105209</v>
@@ -4567,52 +4567,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>163.0466509198802</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="K5" t="n">
-        <v>390.7080163066498</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L5" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M5" t="n">
-        <v>846.030747080189</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N5" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O5" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P5" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V5" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W5" t="n">
-        <v>919.8439005526046</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X5" t="n">
-        <v>919.8439005526046</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="Y5" t="n">
-        <v>715.2483178236314</v>
+        <v>27.26920279687423</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169.0511084509599</v>
+        <v>456.1330772104205</v>
       </c>
       <c r="C6" t="n">
-        <v>18.39687801105209</v>
+        <v>305.4788467705127</v>
       </c>
       <c r="D6" t="n">
-        <v>18.39687801105209</v>
+        <v>175.3898793919931</v>
       </c>
       <c r="E6" t="n">
-        <v>18.39687801105209</v>
+        <v>38.94338850288079</v>
       </c>
       <c r="F6" t="n">
-        <v>18.39687801105209</v>
+        <v>38.94338850288079</v>
       </c>
       <c r="G6" t="n">
         <v>18.39687801105209</v>
@@ -4646,52 +4646,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M6" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N6" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O6" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O6" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="P6" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T6" t="n">
-        <v>895.9268574506692</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U6" t="n">
-        <v>895.9268574506692</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4687374664023</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4687374664023</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="X6" t="n">
-        <v>500.161659816414</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="Y6" t="n">
-        <v>320.8474428919212</v>
+        <v>607.9294116513819</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D7" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E7" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F7" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G7" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I7" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J7" t="n">
         <v>18.39687801105209</v>
@@ -4755,22 +4755,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V7" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y7" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.7698052374575</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C8" t="n">
-        <v>18.48599196659774</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D8" t="n">
         <v>18.39687801105209</v>
@@ -4804,19 +4804,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>246.0582433978217</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L8" t="n">
-        <v>473.7196087845913</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M8" t="n">
-        <v>701.380974171361</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N8" t="n">
-        <v>734.998340411656</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O8" t="n">
         <v>734.998340411656</v>
@@ -4831,25 +4831,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>715.3374317791771</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T8" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="U8" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="V8" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="W8" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="X8" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="Y8" t="n">
-        <v>483.0536185083173</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>453.8026720870193</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="C9" t="n">
-        <v>303.1484416471116</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D9" t="n">
-        <v>173.0594742685919</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E9" t="n">
-        <v>36.6129833794796</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F9" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G9" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H9" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4892,7 +4892,7 @@
         <v>464.5211697790654</v>
       </c>
       <c r="M9" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N9" t="n">
         <v>692.182535165835</v>
@@ -4901,7 +4901,7 @@
         <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
@@ -4928,7 +4928,7 @@
         <v>784.9132234524734</v>
       </c>
       <c r="Y9" t="n">
-        <v>605.5990065279807</v>
+        <v>784.9132234524734</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C10" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D10" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E10" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F10" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="I10" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="J10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105217</v>
       </c>
       <c r="K10" t="n">
         <v>100.231919120994</v>
@@ -4971,7 +4971,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M10" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N10" t="n">
         <v>633.8407713642671</v>
@@ -4992,22 +4992,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U10" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V10" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W10" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X10" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y10" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="C11" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="D11" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="E11" t="n">
         <v>455.276274010885</v>
       </c>
-      <c r="C11" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="D11" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="E11" t="n">
-        <v>18.39687801105209</v>
-      </c>
       <c r="F11" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G11" t="n">
         <v>18.39687801105209</v>
@@ -5044,19 +5044,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L11" t="n">
         <v>246.0582433978217</v>
       </c>
-      <c r="L11" t="n">
-        <v>279.6756096381168</v>
-      </c>
       <c r="M11" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N11" t="n">
+        <v>473.7196087845913</v>
+      </c>
+      <c r="O11" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="N11" t="n">
-        <v>734.998340411656</v>
-      </c>
-      <c r="O11" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P11" t="n">
         <v>734.998340411656</v>
@@ -5086,7 +5086,7 @@
         <v>919.8439005526046</v>
       </c>
       <c r="Y11" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="L12" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M12" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O12" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P12" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
@@ -5147,22 +5147,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S12" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T12" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U12" t="n">
-        <v>574.8500801311152</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V12" t="n">
-        <v>352.3100785021823</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W12" t="n">
-        <v>207.7039556610404</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X12" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y12" t="n">
         <v>18.39687801105209</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C13" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D13" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E13" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F13" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G13" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H13" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5223,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V13" t="n">
-        <v>795.9429111851816</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W13" t="n">
-        <v>795.9429111851816</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="X13" t="n">
-        <v>795.9429111851816</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y13" t="n">
-        <v>795.9429111851816</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="D14" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="E14" t="n">
         <v>687.5600872817448</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>455.276274010885</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>222.9924607400252</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H14" t="n">
         <v>18.39687801105209</v>
@@ -5284,19 +5284,19 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L14" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M14" t="n">
-        <v>846.030747080189</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N14" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P14" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>435.5865667185918</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="C15" t="n">
-        <v>284.932336278684</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="D15" t="n">
-        <v>154.8433689001644</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="E15" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F15" t="n">
         <v>18.39687801105209</v>
@@ -5360,13 +5360,13 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L15" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M15" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="N15" t="n">
         <v>236.8598043922958</v>
@@ -5384,25 +5384,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S15" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T15" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U15" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="V15" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="W15" t="n">
-        <v>919.8439005526046</v>
+        <v>424.7139859474013</v>
       </c>
       <c r="X15" t="n">
-        <v>766.697118084046</v>
+        <v>424.7139859474013</v>
       </c>
       <c r="Y15" t="n">
-        <v>587.3829011595532</v>
+        <v>424.7139859474013</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.5532425203891</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H16" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I16" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J16" t="n">
         <v>18.39687801105209</v>
@@ -5460,28 +5460,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R16" t="n">
-        <v>895.577345029141</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>692.7612612116903</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>692.7612612116903</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U16" t="n">
-        <v>692.7612612116903</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V16" t="n">
-        <v>692.7612612116903</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W16" t="n">
-        <v>692.7612612116903</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X16" t="n">
-        <v>692.7612612116903</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.7612612116903</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>922.895892954585</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="C17" t="n">
-        <v>922.895892954585</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="D17" t="n">
-        <v>922.895892954585</v>
+        <v>1219.194183762603</v>
       </c>
       <c r="E17" t="n">
-        <v>922.895892954585</v>
+        <v>816.6106588791472</v>
       </c>
       <c r="F17" t="n">
-        <v>922.895892954585</v>
+        <v>399.716220409125</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>399.716220409125</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>75.6331699756156</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M17" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>1683.347533053241</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V17" t="n">
-        <v>1683.347533053241</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W17" t="n">
-        <v>1312.348498021528</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X17" t="n">
-        <v>922.895892954585</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="Y17" t="n">
-        <v>922.895892954585</v>
+        <v>1604.635312545935</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171665</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
         <v>963.7331842818107</v>
@@ -5606,40 +5606,40 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.9104765991578</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="C19" t="n">
-        <v>145.9104765991578</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="D19" t="n">
-        <v>145.9104765991578</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E19" t="n">
-        <v>145.9104765991578</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F19" t="n">
-        <v>145.9104765991578</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>145.9104765991578</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>145.9104765991578</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5697,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U19" t="n">
-        <v>663.3212008849971</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V19" t="n">
-        <v>663.3212008849971</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W19" t="n">
-        <v>379.9907988161747</v>
+        <v>768.5920978607139</v>
       </c>
       <c r="X19" t="n">
-        <v>145.9104765991578</v>
+        <v>768.5920978607139</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.9104765991578</v>
+        <v>545.4800366773572</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1927.160845651304</v>
+        <v>1256.234751994065</v>
       </c>
       <c r="C20" t="n">
-        <v>1533.985344154235</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.544215370903</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E20" t="n">
-        <v>1148.544215370903</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F20" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>318.7636682303378</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M20" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2327.655591362701</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.655591362701</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V20" t="n">
-        <v>2327.655591362701</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W20" t="n">
-        <v>2327.655591362701</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X20" t="n">
-        <v>2327.655591362701</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="Y20" t="n">
-        <v>2327.655591362701</v>
+        <v>1374.658158525486</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154359</v>
+        <v>372.9966390740605</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5943,19 +5943,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>558.2046577653617</v>
       </c>
       <c r="W22" t="n">
-        <v>689.7133721932184</v>
+        <v>558.2046577653617</v>
       </c>
       <c r="X22" t="n">
-        <v>455.6330499762015</v>
+        <v>558.2046577653617</v>
       </c>
       <c r="Y22" t="n">
-        <v>232.5209887928449</v>
+        <v>558.2046577653617</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1364.156581512956</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C23" t="n">
-        <v>1364.156581512956</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D23" t="n">
-        <v>978.7154527296238</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E23" t="n">
-        <v>576.1319278461683</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F23" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G23" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2161.142036303752</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U23" t="n">
-        <v>2161.142036303752</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V23" t="n">
-        <v>2161.142036303752</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W23" t="n">
-        <v>2161.142036303752</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X23" t="n">
-        <v>2161.142036303752</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="Y23" t="n">
-        <v>1764.651327224353</v>
+        <v>1429.042058308403</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.116207068685</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1436.116207068685</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O24" t="n">
-        <v>1952.636489659666</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.257858376064</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6113,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2056.539497018455</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>1886.334379084444</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>1730.701265986959</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1619.680033574133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2241.747515709756</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>2241.747515709756</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>2241.747515709756</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>2241.747515709756</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>2241.747515709756</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>2241.747515709756</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1153.434869674488</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C26" t="n">
-        <v>1153.434869674488</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D26" t="n">
-        <v>767.9937408911562</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E26" t="n">
-        <v>365.4102160077007</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F26" t="n">
-        <v>365.4102160077007</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U26" t="n">
-        <v>1943.382220452829</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V26" t="n">
-        <v>1943.382220452829</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W26" t="n">
-        <v>1943.382220452829</v>
+        <v>1188.785204716472</v>
       </c>
       <c r="X26" t="n">
-        <v>1553.929615385885</v>
+        <v>1188.785204716472</v>
       </c>
       <c r="Y26" t="n">
-        <v>1553.929615385885</v>
+        <v>1188.785204716472</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6414,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1641.675880777398</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="C29" t="n">
-        <v>1248.500379280328</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="D29" t="n">
-        <v>863.0592504969959</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="E29" t="n">
-        <v>460.4757256135405</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="F29" t="n">
-        <v>460.4757256135405</v>
+        <v>104.329020219565</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1049.610128415867</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N29" t="n">
-        <v>1577.421412053329</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O29" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X29" t="n">
-        <v>2042.170626488795</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y29" t="n">
-        <v>2042.170626488795</v>
+        <v>914.3989601866567</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>194.5661265746813</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>678.1322124729945</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1263.630217479596</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.5180880355544</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154359</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6660,13 +6660,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>781.2130386637831</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.5180880355544</v>
+        <v>558.1009774804264</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1969.490614168933</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C32" t="n">
-        <v>1576.315112671863</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D32" t="n">
-        <v>1190.873983888531</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E32" t="n">
-        <v>788.2904590050753</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F32" t="n">
-        <v>371.396020535053</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G32" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
         <v>2365.64850507718</v>
@@ -6730,22 +6730,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V32" t="n">
-        <v>2142.147902636596</v>
+        <v>2364.488379499183</v>
       </c>
       <c r="W32" t="n">
-        <v>1969.490614168933</v>
+        <v>1993.489344467471</v>
       </c>
       <c r="X32" t="n">
-        <v>1969.490614168933</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y32" t="n">
-        <v>1969.490614168933</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415748</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016671</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231474</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340351</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171669</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890314</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.7002240896323</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K33" t="n">
-        <v>194.5661265746816</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L33" t="n">
-        <v>678.1322124729949</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479597</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825362</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.3129701015436</v>
+        <v>817.2829896752653</v>
       </c>
       <c r="C34" t="n">
-        <v>47.3129701015436</v>
+        <v>647.0778717412545</v>
       </c>
       <c r="D34" t="n">
-        <v>47.3129701015436</v>
+        <v>491.4447586437693</v>
       </c>
       <c r="E34" t="n">
-        <v>47.3129701015436</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F34" t="n">
-        <v>47.3129701015436</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G34" t="n">
-        <v>47.3129701015436</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H34" t="n">
-        <v>47.3129701015436</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I34" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>598.7311070388184</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U34" t="n">
-        <v>313.2923152807194</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V34" t="n">
-        <v>47.3129701015436</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W34" t="n">
-        <v>47.3129701015436</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X34" t="n">
-        <v>47.3129701015436</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.3129701015436</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>571.091215792411</v>
+        <v>1162.787751730473</v>
       </c>
       <c r="C35" t="n">
-        <v>571.091215792411</v>
+        <v>1162.787751730473</v>
       </c>
       <c r="D35" t="n">
-        <v>185.6500870090788</v>
+        <v>1162.787751730473</v>
       </c>
       <c r="E35" t="n">
-        <v>185.6500870090788</v>
+        <v>760.2042268470175</v>
       </c>
       <c r="F35" t="n">
-        <v>185.6500870090788</v>
+        <v>343.3097883769952</v>
       </c>
       <c r="G35" t="n">
-        <v>185.6500870090788</v>
+        <v>343.3097883769952</v>
       </c>
       <c r="H35" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.3129701015436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>47.3129701015436</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>318.7636682303382</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>864.7645682749188</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N35" t="n">
         <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>1975.634347577647</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.634347577647</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V35" t="n">
-        <v>1975.634347577647</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W35" t="n">
-        <v>1604.635312545935</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="X35" t="n">
-        <v>1215.182707478991</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="Y35" t="n">
-        <v>818.6919983995924</v>
+        <v>1563.28249744187</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415747</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016669</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231474</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340351</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171668</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890313</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
         <v>96.70022408963223</v>
@@ -7016,43 +7016,43 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.116207068686</v>
+        <v>745.9259573278732</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825361</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
@@ -7122,25 +7122,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T37" t="n">
-        <v>789.9441452600163</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U37" t="n">
-        <v>504.5053535019172</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V37" t="n">
-        <v>504.5053535019172</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="W37" t="n">
-        <v>504.5053535019172</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X37" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.9795454185085</v>
+        <v>409.0965647089488</v>
       </c>
       <c r="C38" t="n">
-        <v>773.9795454185085</v>
+        <v>409.0965647089488</v>
       </c>
       <c r="D38" t="n">
-        <v>773.9795454185085</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>503.6092283712866</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1049.610128415867</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1577.421412053329</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.895775511778</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V38" t="n">
-        <v>1767.788966215297</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W38" t="n">
-        <v>1396.789931183584</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X38" t="n">
-        <v>1007.337326116641</v>
+        <v>1206.082019499745</v>
       </c>
       <c r="Y38" t="n">
-        <v>773.9795454185085</v>
+        <v>809.5913104203457</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.164039799289</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7365,19 +7365,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>781.213038663783</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>781.213038663783</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W40" t="n">
-        <v>781.213038663783</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
-        <v>781.213038663783</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>558.1009774804263</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>571.091215792411</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="C41" t="n">
-        <v>571.091215792411</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D41" t="n">
-        <v>185.6500870090788</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E41" t="n">
-        <v>185.6500870090788</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F41" t="n">
-        <v>185.6500870090788</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.57585191238</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2243.502202115634</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>2020.00159967505</v>
       </c>
       <c r="U41" t="n">
-        <v>2109.895775511778</v>
+        <v>2020.00159967505</v>
       </c>
       <c r="V41" t="n">
-        <v>1767.788966215297</v>
+        <v>2020.00159967505</v>
       </c>
       <c r="W41" t="n">
-        <v>1396.789931183584</v>
+        <v>1649.002564643338</v>
       </c>
       <c r="X41" t="n">
-        <v>1007.337326116641</v>
+        <v>1259.549959576395</v>
       </c>
       <c r="Y41" t="n">
-        <v>610.8466170372419</v>
+        <v>863.0592504969959</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
@@ -7496,46 +7496,46 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M42" t="n">
-        <v>1549.231189288413</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X42" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V43" t="n">
-        <v>330.643372170366</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>545.4800366773572</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>545.4800366773572</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1279.953688967018</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L44" t="n">
-        <v>550.9450990378335</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749184</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.57585191238</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.615452804709</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362701</v>
+        <v>2218.334219686816</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.655591362701</v>
+        <v>1994.833617246232</v>
       </c>
       <c r="U44" t="n">
-        <v>2071.9028617973</v>
+        <v>1994.833617246232</v>
       </c>
       <c r="V44" t="n">
-        <v>2051.447469710128</v>
+        <v>1652.726807949751</v>
       </c>
       <c r="W44" t="n">
-        <v>1680.448434678415</v>
+        <v>1652.726807949751</v>
       </c>
       <c r="X44" t="n">
-        <v>1680.448434678415</v>
+        <v>1652.726807949751</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.448434678415</v>
+        <v>1652.726807949751</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>385.7721419361088</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7839,19 +7839,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V46" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W46" t="n">
-        <v>114.011453636999</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>431.3492683572568</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
-        <v>183.681987193985</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,16 +8057,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>310.2665579406502</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N3" t="n">
         <v>315.3330879923178</v>
@@ -8075,10 +8075,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>151.6367735386038</v>
       </c>
       <c r="K5" t="n">
         <v>373.0193783173885</v>
@@ -8224,19 +8224,19 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>223.677232219012</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P6" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>183.0754269340417</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8540,19 +8540,19 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,22 +8692,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>187.2051053267494</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M11" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>183.5207730203541</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8774,10 +8774,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N12" t="n">
         <v>315.3330879923178</v>
@@ -8789,7 +8789,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8932,22 +8932,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L14" t="n">
-        <v>383.2091448686429</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M14" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>223.677232219012</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>196.0090001429458</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
@@ -9017,7 +9017,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O15" t="n">
         <v>322.6485340270401</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9251,10 +9251,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>500.3175139373679</v>
+        <v>500.3175139373686</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>427.4407941030111</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P21" t="n">
-        <v>235.823926913393</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9649,16 +9649,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>98.45345285401062</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10120,7 +10120,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>155.1237765063179</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>238.3374974274118</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10357,7 +10357,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>155.1237765063184</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10366,7 +10366,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>124.0799396297077</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186068</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234616</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>427.4407941030115</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186068</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>92.83741255226329</v>
+        <v>553.266865265316</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10828,7 +10828,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>251.5450406822908</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10837,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>359.0336792490003</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,22 +10901,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>384.8576652182069</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11144,16 +11144,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186067</v>
+        <v>237.313040054172</v>
       </c>
       <c r="N42" t="n">
-        <v>263.5850982253572</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>466.7144144634695</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11314,10 +11314,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P45" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.706196716319</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>101.3530125627374</v>
       </c>
       <c r="C3" t="n">
-        <v>12.383424936659</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>120.9002755513414</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>389.774088096657</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22846,13 +22846,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y5" t="n">
-        <v>189.9761750869214</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22868,16 +22868,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>98.51817436194379</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>15.92106282821942</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23026,7 +23026,7 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
-        <v>381.4984946795087</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23089,7 +23089,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.5648268504537</v>
+        <v>218.893780942281</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>32.52114132162353</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>105.1535437409563</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23260,7 +23260,7 @@
         <v>166.5288231161317</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6941195804153</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,10 +23269,10 @@
         <v>168.5967144964697</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
         <v>175.2139736830806</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>84.65601179531561</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="13">
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -23475,16 +23475,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>68.86743657982262</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>168.5967144964697</v>
@@ -23509,10 +23509,10 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
-        <v>206.4815010551934</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>118.2925930274908</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>118.8592197488542</v>
@@ -23624,10 +23624,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>207.9625118881446</v>
@@ -23636,13 +23636,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>46.43280196110521</v>
       </c>
       <c r="X15" t="n">
-        <v>35.79869222961543</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23670,13 +23670,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.63808950551986</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>18.33131366983966</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>108.9167478631285</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.444240467918775</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.5715133615489</v>
@@ -23910,7 +23910,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>34.15194967665479</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -23946,19 +23946,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>224.7928616873245</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>279.250625788177</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>189.3336548931676</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24144,7 +24144,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24183,19 +24183,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>159.254174038945</v>
       </c>
       <c r="W22" t="n">
-        <v>24.04094380275529</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>120.2506848362642</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>26.14847165660342</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>44.09220393069126</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24381,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,19 +24448,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>94.11485450978131</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>180.1893367220958</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24606,25 +24606,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>352.5852383400357</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>65.3149792137728</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24849,10 +24849,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24900,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>65.86803455532686</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.188072053037644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>337.5372168812998</v>
       </c>
       <c r="W32" t="n">
-        <v>196.3583290984082</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>175.8556850399845</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25092,10 +25092,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>87.62118754448952</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>151.3650234731734</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>27.80536983647715</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25362,25 +25362,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>76.13417240419921</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>83.91153943350412</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>23.42095883416778</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25408,7 +25408,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>161.5015990974538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25560,10 +25560,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25605,19 +25605,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>116.7129194009981</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>357.1319510219004</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>43.92357957642886</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>167.3303626133475</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>112.9894606368994</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>19.00727697189899</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>318.4349030372163</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>138.2345833474517</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26079,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947459</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421210.3909520617</v>
+        <v>421210.3909520618</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421210.3909520619</v>
+        <v>421210.3909520616</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421210.3909520619</v>
+        <v>421210.3909520618</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421210.3909520616</v>
+        <v>421210.3909520617</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678342.4163268267</v>
+        <v>678342.4163268261</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678342.4163268266</v>
+        <v>678342.4163268262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678342.416326826</v>
+        <v>678342.4163268269</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678342.4163268262</v>
+        <v>678342.4163268269</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678342.4163268266</v>
+        <v>678342.4163268264</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678342.4163268266</v>
+        <v>678342.4163268262</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678342.4163268264</v>
+        <v>678342.4163268269</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678342.4163268268</v>
+        <v>678342.4163268262</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678342.4163268267</v>
+        <v>678342.4163268264</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105219.9252576085</v>
+        <v>105219.9252576084</v>
       </c>
       <c r="C2" t="n">
         <v>105219.9252576085</v>
@@ -26328,16 +26328,16 @@
         <v>105219.9252576085</v>
       </c>
       <c r="G2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="H2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="I2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="J2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="K2" t="n">
         <v>169394.3482070293</v>
@@ -26349,13 +26349,13 @@
         <v>169394.3482070293</v>
       </c>
       <c r="N2" t="n">
+        <v>169394.3482070292</v>
+      </c>
+      <c r="O2" t="n">
         <v>169394.3482070293</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>169394.3482070292</v>
-      </c>
-      <c r="P2" t="n">
-        <v>169394.3482070293</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99068.33875777952</v>
+        <v>99068.33875777958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>86983.58097086086</v>
+        <v>86983.58097086092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>35603.40934884742</v>
       </c>
       <c r="C4" t="n">
+        <v>35603.40934884741</v>
+      </c>
+      <c r="D4" t="n">
         <v>35603.40934884742</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35603.40934884741</v>
       </c>
       <c r="E4" t="n">
         <v>35603.40934884742</v>
@@ -26432,34 +26432,34 @@
         <v>35603.40934884742</v>
       </c>
       <c r="G4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="H4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="I4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="J4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="K4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="L4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="M4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="N4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="O4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="P4" t="n">
-        <v>57691.12693712539</v>
+        <v>57691.12693712542</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55057.92325086113</v>
+        <v>-56159.7788634107</v>
       </c>
       <c r="C6" t="n">
-        <v>22007.28862036148</v>
+        <v>20905.43300781193</v>
       </c>
       <c r="D6" t="n">
-        <v>22007.28862036149</v>
+        <v>20905.43300781193</v>
       </c>
       <c r="E6" t="n">
-        <v>55634.88862036146</v>
+        <v>54533.03300781194</v>
       </c>
       <c r="F6" t="n">
-        <v>55634.88862036147</v>
+        <v>54533.03300781194</v>
       </c>
       <c r="G6" t="n">
-        <v>-23322.97476504888</v>
+        <v>-23997.00089126893</v>
       </c>
       <c r="H6" t="n">
-        <v>75745.36399273066</v>
+        <v>75071.33786651066</v>
       </c>
       <c r="I6" t="n">
-        <v>75745.36399273068</v>
+        <v>75071.33786651066</v>
       </c>
       <c r="J6" t="n">
-        <v>15577.45461368424</v>
+        <v>14903.42848746427</v>
       </c>
       <c r="K6" t="n">
-        <v>75745.36399273078</v>
+        <v>75071.33786651069</v>
       </c>
       <c r="L6" t="n">
-        <v>75745.36399273068</v>
+        <v>75071.3378665106</v>
       </c>
       <c r="M6" t="n">
-        <v>75745.36399273074</v>
+        <v>75071.33786651066</v>
       </c>
       <c r="N6" t="n">
-        <v>75745.36399273072</v>
+        <v>75071.33786651063</v>
       </c>
       <c r="O6" t="n">
-        <v>-11238.21697813022</v>
+        <v>-11912.24310435026</v>
       </c>
       <c r="P6" t="n">
-        <v>75745.36399273074</v>
+        <v>75071.33786651063</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
-        <v>33.95693559625769</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="N3" t="n">
         <v>229.9609751381512</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="K5" t="n">
         <v>229.9609751381512</v>
@@ -34944,19 +34944,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N5" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M6" t="n">
-        <v>106.4120648096125</v>
-      </c>
       <c r="N6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
-        <v>33.95693559625762</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L11" t="n">
-        <v>33.9569355962577</v>
-      </c>
       <c r="M11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>33.95693559625767</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N12" t="n">
         <v>229.9609751381512</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L14" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N14" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>106.4120648096124</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>229.9609751381512</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>414.9454010832013</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>274.1926243725193</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940783</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36369,16 +36369,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.465299698096623</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36840,7 +36840,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>5.398724908590651</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>148.7405620940785</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37077,7 +37077,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>5.39872490859111</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37086,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>34.48300429637437</v>
+        <v>93.70171839237574</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.412126269295</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>274.1926243725198</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>7.465299698096623</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>98.29687095179912</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37557,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>209.4698418249039</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>292.470543168895</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="N42" t="n">
-        <v>178.2129853711906</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>316.9893628657422</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38034,10 +38034,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P45" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
